--- a/biology/Médecine/Moïse_Cahen/Moïse_Cahen.xlsx
+++ b/biology/Médecine/Moïse_Cahen/Moïse_Cahen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mo%C3%AFse_Cahen</t>
+          <t>Moïse_Cahen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Moïse Cahen (ou Moyse Cahen ; Metz, 17 décembre 1785 - Paris, 24 mai 1853[1]) est un médecin français, président du Consistoire israélite de Paris de 1832 à 1852[2].
+Moïse Cahen (ou Moyse Cahen ; Metz, 17 décembre 1785 - Paris, 24 mai 1853) est un médecin français, président du Consistoire israélite de Paris de 1832 à 1852.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mo%C3%AFse_Cahen</t>
+          <t>Moïse_Cahen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moïse Cahen est né le 19 septembre 1785 à Metz[3],[4]. 
-Il est le père de Mayer Cahen, médecin-chef de la Compagnie des chemins de fer du Nord, médecin en chef de l'Hôpital Rothschild et beau-père de la philanthrope Coralie Cahen. Il est aussi le père de Rosine Cahen[5],[6], devenue photographe sous le nom de Mme Moriss en 1861.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moïse Cahen est né le 19 septembre 1785 à Metz,. 
+Il est le père de Mayer Cahen, médecin-chef de la Compagnie des chemins de fer du Nord, médecin en chef de l'Hôpital Rothschild et beau-père de la philanthrope Coralie Cahen. Il est aussi le père de Rosine Cahen devenue photographe sous le nom de Mme Moriss en 1861.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mo%C3%AFse_Cahen</t>
+          <t>Moïse_Cahen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Thèse médicale sur la circoncision[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thèse médicale sur la circoncision,.</t>
         </is>
       </c>
     </row>
